--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongTriQuyetToan.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongTriQuyetToan.xlsx
@@ -568,9 +568,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -579,66 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -929,8 +929,8 @@
   </sheetPr>
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="33" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H7" zoomScaleNormal="33" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -946,19 +946,19 @@
       <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="20"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
@@ -976,20 +976,20 @@
       <c r="AA2" s="21"/>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
@@ -1007,20 +1007,20 @@
       <c r="AA3" s="21"/>
     </row>
     <row r="4" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
@@ -1038,20 +1038,20 @@
       <c r="AA4" s="21"/>
     </row>
     <row r="5" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -1069,20 +1069,20 @@
       <c r="AA5" s="21"/>
     </row>
     <row r="6" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
@@ -1129,26 +1129,26 @@
       <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43" t="s">
+      <c r="H8" s="39"/>
+      <c r="I8" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43" t="s">
+      <c r="J8" s="39"/>
+      <c r="K8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="44"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -1166,26 +1166,26 @@
       <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="44"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
@@ -1232,12 +1232,12 @@
       <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -1275,18 +1275,18 @@
       <c r="D12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45" t="s">
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="45"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -1308,16 +1308,16 @@
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
@@ -1335,30 +1335,30 @@
       <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="1:27" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="55"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -1388,10 +1388,10 @@
       <c r="J15" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="34"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
@@ -1409,20 +1409,20 @@
       <c r="AA15" s="21"/>
     </row>
     <row r="16" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
@@ -1448,12 +1448,12 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -1479,11 +1479,11 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
@@ -1503,22 +1503,22 @@
     </row>
     <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="16"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
@@ -1538,16 +1538,16 @@
     </row>
     <row r="20" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="16"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -1567,16 +1567,16 @@
     </row>
     <row r="21" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="16"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
@@ -1596,16 +1596,16 @@
     </row>
     <row r="22" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="16"/>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
@@ -1625,16 +1625,16 @@
     </row>
     <row r="23" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="16"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="24" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="16"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
@@ -1683,16 +1683,16 @@
     </row>
     <row r="25" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="16"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
@@ -1712,22 +1712,22 @@
     </row>
     <row r="26" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32" t="s">
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32" t="s">
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="16"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
@@ -1793,6 +1793,30 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B20:D25"/>
+    <mergeCell ref="E20:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I20:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E12:J12"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A2:C2"/>
@@ -1804,30 +1828,6 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B20:D25"/>
-    <mergeCell ref="E20:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I20:K25"/>
-    <mergeCell ref="I26:K26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
@@ -2055,7 +2055,7 @@
       <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="M11" s="13"/>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongTriQuyetToan.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongTriQuyetToan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Sources\qlns-ctc-bqp-main\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\2810_NH_ChuKy_Web\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,21 +109,12 @@
     <t>&lt;#dt.sTenNoiDungChi&gt;&lt;#AltFormat&gt;</t>
   </si>
   <si>
-    <t>BỘ QUỐC PHÒNG</t>
-  </si>
-  <si>
-    <t>CỤC TÀI CHÍNH</t>
-  </si>
-  <si>
     <t>&lt;#sLoaiThongTri&gt;</t>
   </si>
   <si>
     <t>THÔNG TRI</t>
   </si>
   <si>
-    <t>Kinh phí nguồn quỹ dự trữ ngoại hối</t>
-  </si>
-  <si>
     <t>Đơn vị: &lt;#sTenDonVi&gt;</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
   </si>
   <si>
     <t>Cộng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      ngày     tháng     năm</t>
   </si>
   <si>
     <t>&lt;#dt.sMoneyReport&gt;&lt;#AltFormat&gt;</t>
@@ -227,29 +215,41 @@
     <t>&lt;#Ten2&gt;</t>
   </si>
   <si>
-    <t>&lt;#Ten5&gt;</t>
-  </si>
-  <si>
     <t>&lt;#ChucDanh1&gt;</t>
   </si>
   <si>
     <t>&lt;#ChucDanh2&gt;</t>
   </si>
   <si>
-    <t>&lt;#ChucDanh5&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ThuaLenh5&gt;</t>
-  </si>
-  <si>
     <t>&lt;#format cell(ItemsFormat)&gt;&lt;#Row height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#txtDonViCapTren&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#txtDonVi&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#txtTieuDe&gt;</t>
+  </si>
+  <si>
+    <t>Ngày     tháng     năm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +314,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -497,7 +517,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
@@ -574,71 +594,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -929,36 +970,38 @@
   </sheetPr>
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H7" zoomScaleNormal="33" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="33" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="12.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="19" customWidth="1"/>
-    <col min="14" max="27" width="20.7109375" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="12" width="12.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="19" customWidth="1"/>
+    <col min="14" max="27" width="20.6640625" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+    <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="J2" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
@@ -975,21 +1018,22 @@
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
     </row>
-    <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+    <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
@@ -1006,21 +1050,21 @@
       <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
     </row>
-    <row r="4" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+    <row r="4" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
@@ -1037,21 +1081,21 @@
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
     </row>
-    <row r="5" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+    <row r="5" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -1068,21 +1112,21 @@
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
     </row>
-    <row r="6" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+    <row r="6" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
@@ -1099,7 +1143,7 @@
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
     </row>
-    <row r="7" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1128,27 +1172,27 @@
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
     </row>
-    <row r="8" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+    <row r="8" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="40"/>
+      <c r="G8" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="55"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -1165,27 +1209,27 @@
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="40"/>
+      <c r="G9" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="55"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
@@ -1202,7 +1246,7 @@
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
     </row>
-    <row r="10" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -1231,13 +1275,13 @@
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
     </row>
-    <row r="11" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+    <row r="11" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -1262,31 +1306,31 @@
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
     </row>
-    <row r="12" spans="1:27" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="E12" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="52"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -1303,21 +1347,21 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
+      <c r="E13" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
@@ -1334,7 +1378,7 @@
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
     </row>
-    <row r="14" spans="1:27" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>22</v>
       </c>
@@ -1342,23 +1386,23 @@
         <v>23</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="44"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -1375,7 +1419,7 @@
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
     </row>
-    <row r="15" spans="1:27" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -1386,12 +1430,12 @@
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="54"/>
+        <v>44</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="40"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
@@ -1408,21 +1452,21 @@
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
     </row>
-    <row r="16" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
+    <row r="16" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
@@ -1439,7 +1483,7 @@
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
     </row>
-    <row r="17" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -1447,13 +1491,13 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -1470,7 +1514,7 @@
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
     </row>
-    <row r="18" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -1479,11 +1523,11 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="I18" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
@@ -1501,24 +1545,24 @@
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
     </row>
-    <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
-      <c r="B19" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="16"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
@@ -1536,18 +1580,18 @@
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
     </row>
-    <row r="20" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="16"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -1565,18 +1609,18 @@
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
     </row>
-    <row r="21" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="16"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
@@ -1594,18 +1638,18 @@
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
     </row>
-    <row r="22" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="16"/>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
@@ -1623,18 +1667,18 @@
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
     </row>
-    <row r="23" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="16"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
@@ -1652,18 +1696,18 @@
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
     </row>
-    <row r="24" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="16"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
@@ -1681,18 +1725,18 @@
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
     </row>
-    <row r="25" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
       <c r="L25" s="16"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
@@ -1710,24 +1754,24 @@
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
     </row>
-    <row r="26" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
-      <c r="B26" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="B26" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="16"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
@@ -1745,7 +1789,7 @@
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
     </row>
-    <row r="27" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -1768,7 +1812,7 @@
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
     </row>
-    <row r="28" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -1793,19 +1837,17 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B20:D25"/>
-    <mergeCell ref="E20:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I20:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="E13:J13"/>
@@ -1817,21 +1859,23 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="E12:J12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B20:D25"/>
+    <mergeCell ref="E20:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I20:K25"/>
+    <mergeCell ref="I26:K26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1843,23 +1887,23 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="3" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="17.28515625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="21.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="14.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="23.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="3" width="9.109375" style="3"/>
+    <col min="4" max="4" width="17.33203125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.109375" style="3"/>
+    <col min="8" max="8" width="21.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="3"/>
+    <col min="11" max="11" width="14.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="3"/>
+    <col min="13" max="13" width="23.88671875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +1921,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1893,7 +1937,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1911,7 +1955,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1927,7 +1971,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1943,7 +1987,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1963,7 +2007,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1979,7 +2023,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -2003,7 +2047,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
@@ -2037,7 +2081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H10" s="11" t="s">
         <v>19</v>
       </c>
@@ -2048,10 +2092,10 @@
         <v>12</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2061,11 +2105,11 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H13" s="11" t="s">
         <v>21</v>
       </c>
@@ -2075,7 +2119,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I14" s="15"/>
     </row>
   </sheetData>
